--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_4_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_4_genetic_schedule.xlsx
@@ -518,6 +518,13 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>BM 309 - Business Mathematics
+2C
+Room 149</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,7 +532,113 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>AAC 419 - Advanced Accounting
+3C
+Room 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>CN 405 - Computer Networks
+3A
+Room 200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>MB 205 - Microbiology
+2D
+Room 170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>IT 323 - Web Development
 2A
@@ -533,213 +646,116 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>CW 433 - Creative Writing
+3E
+Room 229</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>AAC 419 - Advanced Accounting
 3C
-Room 47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+Room 410</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IT 323 - Web Development
+2A
+Room 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>CN 405 - Computer Networks
 3A
-Room 200</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+Room 77</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>MB 205 - Microbiology
 2D
 Room 166</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>MB 205 - Microbiology
-2D
-Room 170</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>CW 433 - Creative Writing
-3E
-Room 229</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>AAC 419 - Advanced Accounting
-3C
-Room 410</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 77</t>
-        </is>
-      </c>
+      <c r="C24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -747,7 +763,8 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -755,7 +772,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -765,15 +781,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E14:E16"/>
+  <mergeCells count="10">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_4_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_4_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +536,20 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>BM 309 - Business Mathematics
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
 2C
-Room 149</t>
+Room 310
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2C
+Room 310
+Emp: 4</t>
         </is>
       </c>
     </row>
@@ -532,7 +559,8 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +568,8 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,7 +577,22 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2A
+Room 305
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2A
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -556,6 +600,8 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -563,13 +609,8 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>AAC 419 - Advanced Accounting
-3C
-Room 47</t>
-        </is>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -577,14 +618,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 200</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -592,8 +625,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -615,11 +646,20 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>MB 205 - Microbiology
-2D
-Room 170</t>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>IS 314 - IS Innovations and New Technologies
+3A
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>IS 314 - IS Innovations and New Technologies
+3A
+Room 304
+Emp: 4</t>
         </is>
       </c>
     </row>
@@ -629,7 +669,8 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -637,14 +678,8 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 135</t>
-        </is>
-      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -652,14 +687,6 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>CW 433 - Creative Writing
-3E
-Room 229</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -667,7 +694,14 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2B
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -675,7 +709,7 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="3" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -683,6 +717,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="C18" s="3" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -704,6 +739,14 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2B
+Room 304
+Emp: 4</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -711,20 +754,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>AAC 419 - Advanced Accounting
-3C
-Room 410</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 15</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -732,15 +762,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 77</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n"/>
+      <c r="B23" s="3" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -748,14 +770,6 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MB 205 - Microbiology
-2D
-Room 166</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -763,8 +777,6 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -781,17 +793,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E14:E15"/>
+  <mergeCells count="8">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
